--- a/PMSheets/PM14_03_19.xlsx
+++ b/PMSheets/PM14_03_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Admin\project-proposal-walliserwagner\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54F257-72F8-4CC2-AB9C-5E67EB038652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230D5B73-0BFE-478A-AA42-92B65354044A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E0BBA045-77F2-490B-811A-0A4098F11621}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -468,8 +468,18 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -482,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
